--- a/Data/EC/NIT-9012285809.xlsx
+++ b/Data/EC/NIT-9012285809.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D95ECCC-DC26-43E4-B432-616736E74908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDD1F2CE-3C4A-4E2F-B71A-2591AD6F707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CB432F75-DB28-4B86-A3FA-BD88E2C33FC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CEE3CE4-F461-47F3-8F93-1989D3DE362F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="75">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,27 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143362743</t>
+  </si>
+  <si>
+    <t>OLGA MATILDE LOPEZ CORREA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>45491468</t>
+  </si>
+  <si>
+    <t>DONATELY DEL ROSARIO AYAZO MONTOYA</t>
+  </si>
+  <si>
+    <t>1128056826</t>
+  </si>
+  <si>
+    <t>LEONARDO ARTURO MARRUGO GUARDO</t>
+  </si>
+  <si>
     <t>45545512</t>
   </si>
   <si>
@@ -74,67 +95,139 @@
     <t>2308</t>
   </si>
   <si>
+    <t>1235039348</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL LICONA PESTANA</t>
+  </si>
+  <si>
+    <t>1143389769</t>
+  </si>
+  <si>
+    <t>JHYN HOLLVER NAVARRO MELENDREZ</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>LUDWING YULIAN FRANCO CARABALLO</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>1143389789</t>
+  </si>
+  <si>
+    <t>1047483167</t>
+  </si>
+  <si>
+    <t>CATERINE LLAMAS VILLARRUEL</t>
+  </si>
+  <si>
+    <t>1143382348</t>
+  </si>
+  <si>
+    <t>JOSE DAVID ANGULO UTRIA</t>
+  </si>
+  <si>
+    <t>45371209</t>
+  </si>
+  <si>
+    <t>YULEIDIS MELENDEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>1050974202</t>
+  </si>
+  <si>
+    <t>JABES ACOSTA ACOSTA MUÑOZ</t>
+  </si>
+  <si>
+    <t>1001974839</t>
+  </si>
+  <si>
+    <t>LILIBETH PALACIO MATOREL</t>
+  </si>
+  <si>
+    <t>1047487279</t>
+  </si>
+  <si>
+    <t>NATASHA CARDOSI TORRES</t>
+  </si>
+  <si>
+    <t>1007126590</t>
+  </si>
+  <si>
+    <t>SASHA PAULLY JIMENEZ PRADA</t>
+  </si>
+  <si>
     <t>1100401384</t>
   </si>
   <si>
     <t>LINA ROSA ARRIETA REALES</t>
   </si>
   <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>1143389769</t>
-  </si>
-  <si>
-    <t>LUDWING YULIAN FRANCO CARABALLO</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
   </si>
   <si>
     <t>2503</t>
   </si>
   <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>22809711</t>
+  </si>
+  <si>
+    <t>ESTHER DEL CARMEN BALDIRIS PINZON</t>
+  </si>
+  <si>
+    <t>1001967618</t>
+  </si>
+  <si>
+    <t>ALICIA JOSE CUERVO GUZMAN</t>
+  </si>
+  <si>
+    <t>1005563796</t>
+  </si>
+  <si>
+    <t>ZARY JULIETH HERNANDEZ HERNANDEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -178,7 +271,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,7 +641,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53671508-3659-0712-6E7C-FD4DF6F48F88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6A4904-650C-89E7-029A-4D43F956F3AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,32 +992,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93187A74-1844-4F15-BBFB-C9EE3CD019D8}">
-  <dimension ref="B2:J40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845C8000-3ABB-4EEA-8164-03E95999CE63}">
+  <dimension ref="B2:J68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -933,7 +1026,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -944,7 +1037,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -955,7 +1048,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -966,10 +1059,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -982,8 +1075,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -998,15 +1091,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>982400</v>
+        <v>2512500</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1014,27 +1107,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F13" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1054,16 +1147,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1077,16 +1170,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1097,99 +1190,99 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1201,18 +1294,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1224,18 +1317,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1247,18 +1340,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1270,18 +1363,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1293,18 +1386,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1316,18 +1409,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1339,18 +1432,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1362,18 +1455,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1385,18 +1478,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1408,18 +1501,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1431,18 +1524,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1454,18 +1547,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1477,57 +1570,701 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="22" t="s">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G35" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G37" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G34" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="H39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="H40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="F56" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G56" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G57" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G58" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G59" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G60" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G61" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G62" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="26"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="H67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="32"/>
+      <c r="H68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H67:J67"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9012285809.xlsx
+++ b/Data/EC/NIT-9012285809.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDD1F2CE-3C4A-4E2F-B71A-2591AD6F707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13301B7A-89CB-4A3C-9B61-58B77F474C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CEE3CE4-F461-47F3-8F93-1989D3DE362F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4A14CB8F-DB18-41B0-B5B3-73577B0E39C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="60">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,78 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45545512</t>
+  </si>
+  <si>
+    <t>LUZ DELLY OSORIO DICKEN</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>1143389769</t>
+  </si>
+  <si>
+    <t>JHYN HOLLVER NAVARRO MELENDREZ</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>1100401384</t>
+  </si>
+  <si>
+    <t>LINA ROSA ARRIETA REALES</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>1143362743</t>
   </si>
   <si>
@@ -74,160 +146,43 @@
     <t>2507</t>
   </si>
   <si>
-    <t>45491468</t>
-  </si>
-  <si>
-    <t>DONATELY DEL ROSARIO AYAZO MONTOYA</t>
-  </si>
-  <si>
     <t>1128056826</t>
   </si>
   <si>
     <t>LEONARDO ARTURO MARRUGO GUARDO</t>
   </si>
   <si>
-    <t>45545512</t>
-  </si>
-  <si>
-    <t>LUZ DELLY OSORIO DICKEN</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
     <t>1235039348</t>
   </si>
   <si>
     <t>JOSE MIGUEL LICONA PESTANA</t>
   </si>
   <si>
-    <t>1143389769</t>
-  </si>
-  <si>
-    <t>JHYN HOLLVER NAVARRO MELENDREZ</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>LUDWING YULIAN FRANCO CARABALLO</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>1143389789</t>
-  </si>
-  <si>
-    <t>1047483167</t>
-  </si>
-  <si>
-    <t>CATERINE LLAMAS VILLARRUEL</t>
-  </si>
-  <si>
     <t>1143382348</t>
   </si>
   <si>
     <t>JOSE DAVID ANGULO UTRIA</t>
   </si>
   <si>
-    <t>45371209</t>
-  </si>
-  <si>
-    <t>YULEIDIS MELENDEZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>1050974202</t>
-  </si>
-  <si>
-    <t>JABES ACOSTA ACOSTA MUÑOZ</t>
-  </si>
-  <si>
-    <t>1001974839</t>
-  </si>
-  <si>
-    <t>LILIBETH PALACIO MATOREL</t>
-  </si>
-  <si>
-    <t>1047487279</t>
-  </si>
-  <si>
-    <t>NATASHA CARDOSI TORRES</t>
-  </si>
-  <si>
     <t>1007126590</t>
   </si>
   <si>
     <t>SASHA PAULLY JIMENEZ PRADA</t>
   </si>
   <si>
-    <t>1100401384</t>
-  </si>
-  <si>
-    <t>LINA ROSA ARRIETA REALES</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>22809711</t>
-  </si>
-  <si>
-    <t>ESTHER DEL CARMEN BALDIRIS PINZON</t>
-  </si>
-  <si>
-    <t>1001967618</t>
-  </si>
-  <si>
-    <t>ALICIA JOSE CUERVO GUZMAN</t>
-  </si>
-  <si>
     <t>1005563796</t>
   </si>
   <si>
     <t>ZARY JULIETH HERNANDEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>1002201129</t>
+  </si>
+  <si>
+    <t>ELIANA PAOLA VILLA URUETA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -326,7 +281,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -339,9 +296,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -541,23 +496,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,10 +540,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,7 +596,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6A4904-650C-89E7-029A-4D43F956F3AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D721C97E-F4D9-A128-E6AD-F3CA919FC546}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -992,8 +947,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845C8000-3ABB-4EEA-8164-03E95999CE63}">
-  <dimension ref="B2:J68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342002DB-92E0-412E-BF59-46A2594536B0}">
+  <dimension ref="B2:J55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1004,7 +959,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1017,7 +972,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1062,7 +1017,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1094,12 +1049,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2512500</v>
+        <v>1826620</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1110,17 +1065,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F13" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1147,13 +1102,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1170,10 +1125,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1190,13 +1145,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1207,19 +1162,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1230,19 +1185,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F19" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1253,19 +1208,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G20" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1276,13 +1231,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1299,13 +1254,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1322,13 +1277,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1345,13 +1300,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1368,13 +1323,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1391,13 +1346,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1414,13 +1369,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1437,13 +1392,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1460,13 +1415,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1483,13 +1438,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1506,13 +1461,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1529,13 +1484,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1552,13 +1507,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1575,19 +1530,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G34" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1598,19 +1553,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F35" s="18">
         <v>56940</v>
       </c>
       <c r="G35" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1621,13 +1576,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
         <v>56940</v>
@@ -1644,19 +1599,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F37" s="18">
         <v>56940</v>
       </c>
       <c r="G37" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1667,13 +1622,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>56940</v>
@@ -1690,13 +1645,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F39" s="18">
         <v>56940</v>
@@ -1713,19 +1668,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G40" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1736,13 +1691,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F41" s="18">
         <v>56940</v>
@@ -1759,19 +1714,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F42" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G42" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1782,19 +1737,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F43" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G43" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1805,19 +1760,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F44" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G44" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1828,19 +1783,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F45" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G45" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1851,19 +1806,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F46" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G46" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1874,19 +1829,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F47" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G47" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1897,13 +1852,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -1916,355 +1871,56 @@
       <c r="J48" s="20"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F51" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F52" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="B49" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G49" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="B54" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="H54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F59" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="17" t="s">
+      <c r="B55" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="32"/>
+      <c r="H55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E60" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G62" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="26"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="32"/>
-      <c r="H67" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" s="32"/>
-      <c r="H68" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H54:J54"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
